--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1313,10 +1313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1365,8 +1365,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,6 +1388,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1402,47 +1471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1450,7 +1480,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,46 +1493,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1536,7 +1536,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,19 +1614,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,79 +1644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,7 +1674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,25 +1692,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,13 +1716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,16 +1805,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1836,9 +1836,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1859,49 +1879,29 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1913,130 +1913,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2490,10 +2490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5394,622 +5394,606 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="12">
-        <v>134</v>
-      </c>
-      <c r="B135" s="10" t="s">
+      <c r="A135" s="11">
+        <v>135</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H135" s="18"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="12">
+        <v>136</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="10">
-        <v>1</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="17"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="11">
-        <v>135</v>
-      </c>
-      <c r="B136" s="8" t="s">
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10">
+        <v>5</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="11">
+        <v>137</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" s="18"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="12">
-        <v>136</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10">
-        <v>5</v>
-      </c>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="17"/>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="11">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H138" s="8"/>
+      <c r="C138" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="H138" s="10"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="11">
-        <v>138</v>
-      </c>
-      <c r="B139" s="10" t="s">
+      <c r="A139" s="12">
+        <v>139</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8">
+        <v>5</v>
+      </c>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="11">
+        <v>140</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="12">
-        <v>139</v>
-      </c>
-      <c r="B140" s="8" t="s">
+      <c r="C140" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H140" s="10"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="12">
+        <v>141</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8">
-        <v>3</v>
-      </c>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="11">
-        <v>140</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H141" s="10"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8">
+        <v>5</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="12">
-        <v>141</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8">
-        <v>3</v>
-      </c>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
+      <c r="A142" s="11">
+        <v>142</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H142" s="10"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="11">
-        <v>142</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H143" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="8">
+        <v>5</v>
+      </c>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="11">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="8">
-        <v>3</v>
-      </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
+      <c r="A144" s="12">
+        <v>144</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H144" s="10"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="12">
-        <v>144</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="H145" s="10"/>
+      <c r="A145" s="11">
+        <v>145</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="11">
-        <v>145</v>
-      </c>
-      <c r="B146" s="8" t="s">
+      <c r="A146" s="12">
+        <v>146</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="C146" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H146" s="10"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="12">
-        <v>146</v>
-      </c>
-      <c r="B147" s="10" t="s">
+      <c r="A147" s="11">
+        <v>147</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H147" s="10"/>
+      <c r="C147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="11">
-        <v>147</v>
-      </c>
-      <c r="B148" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
+      <c r="C148" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H148" s="10"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="11">
-        <v>148</v>
-      </c>
-      <c r="B149" s="10" t="s">
+      <c r="A149" s="12">
+        <v>149</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E149" s="8">
+        <v>200</v>
+      </c>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="11">
+        <v>150</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H149" s="10"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="12">
-        <v>149</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E150" s="8">
-        <v>200</v>
-      </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
+      <c r="C150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H150" s="10"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="11">
-        <v>150</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H151" s="10"/>
+      <c r="A151" s="12">
+        <v>151</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="8">
+        <v>3</v>
+      </c>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="12">
-        <v>151</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="8">
-        <v>3</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
+      <c r="A152" s="11">
+        <v>152</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="11">
-        <v>152</v>
-      </c>
-      <c r="B153" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="12">
+        <v>154</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H154" s="10"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="11">
+        <v>155</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="8">
+        <v>2</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="12">
+        <v>156</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="11">
+        <v>157</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="11">
-        <v>153</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="12">
-        <v>154</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="11">
-        <v>155</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="8">
-        <v>2</v>
-      </c>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="12">
-        <v>156</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
+      <c r="C157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="11">
-        <v>157</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="11">
-        <v>158</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
+      <c r="A159" s="12">
+        <v>159</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="8">
+        <v>10</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="12">
-        <v>159</v>
-      </c>
-      <c r="B160" s="8" t="s">
+      <c r="A160" s="11">
+        <v>160</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H160" s="10"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="12">
+        <v>161</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="8">
+      <c r="C161" s="8"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="8">
         <v>10</v>
       </c>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="11">
-        <v>160</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="H161" s="10"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="12">
-        <v>161</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="8">
-        <v>10</v>
-      </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
+      <c r="A162" s="11">
+        <v>162</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H162" s="10"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="11">
-        <v>162</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="H163" s="10"/>
+        <v>163</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="11">
-        <v>163</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="H164" s="8"/>
+      <c r="A164" s="12">
+        <v>164</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H164" s="10"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="12">
-        <v>164</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="11">
+      <c r="A165" s="11">
         <v>165</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B165" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8">
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8">
         <v>4</v>
       </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6025,13 +6009,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99 B100 B118 C134 B135 C135 C137 B1:B3 B18:B38 B39:B97 B102:B117 B121:B134 B136:B138 B165:B166 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99 B100 B118 C134 C136 B1:B3 B18:B38 B39:B97 B102:B117 B121:B134 B135:B137 B164:B165 C2:C3">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136 C18:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C135 C18:C28">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B142 B143:B164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B141 B142:B163">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -111,7 +111,7 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Fname</t>
+    <t>Fname</t>
   </si>
   <si>
     <t>Enter First name</t>
@@ -123,7 +123,7 @@
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Lname</t>
+    <t>Lname</t>
   </si>
   <si>
     <t>Enter last name</t>
@@ -1313,10 +1313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1365,16 +1365,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,23 +1405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,42 +1413,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,10 +1426,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1493,6 +1457,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1501,11 +1502,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1536,6 +1536,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1548,7 +1566,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,7 +1668,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,79 +1698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,61 +1716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,6 +1797,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1836,17 +1847,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1854,11 +1854,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,30 +1884,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1913,130 +1913,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2490,10 +2490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3839,7 +3839,7 @@
       <c r="C61" s="8"/>
       <c r="D61" s="13"/>
       <c r="E61" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -4341,7 +4341,7 @@
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -4434,1573 +4434,1587 @@
       <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="11">
+      <c r="A89" s="11"/>
+      <c r="B89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10">
+        <v>5</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="12">
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E91" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F91" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H90" s="17"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="11">
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F92" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G92" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H91" s="18"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="12">
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D93" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G93" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H92" s="17"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="11">
-        <v>92</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8">
-        <v>4</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="18"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8">
+        <v>4</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="10" t="s">
+      <c r="C95" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="s">
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H94" s="17"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="12">
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="8">
+      <c r="C96" s="8"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="8">
         <v>1</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="11">
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="15" t="s">
+      <c r="C97" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="17"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="12">
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="8">
+      <c r="C98" s="8"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="8">
         <v>1</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="18"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="11">
-        <v>97</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H98" s="17"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="11">
+        <v>97</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B100" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8">
         <v>3</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F100" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G100" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="H99" s="18"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="12">
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B101" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="10" t="s">
+      <c r="C101" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10" t="s">
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G100" s="10" t="s">
+      <c r="G101" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H100" s="17"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="11">
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B102" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="C102" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
+      <c r="E102" s="8"/>
+      <c r="F102" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G102" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="H101" s="18"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="12">
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="12">
         <v>101</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10">
         <v>2</v>
       </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="17"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="11">
-        <v>102</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H103" s="18"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="11">
+        <v>102</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B105" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D105" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F105" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G104" s="10" t="s">
+      <c r="G105" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H104" s="17"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="12">
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="12">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B106" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D106" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E106" s="8">
         <v>9889656446</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F106" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G106" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H105" s="18"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="11">
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D107" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10" t="s">
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="G107" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H106" s="17"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="12">
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="12">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B108" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8">
         <v>4</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G108" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H107" s="18"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="11">
-        <v>107</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H108" s="17"/>
+      <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="11">
+        <v>107</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="C110" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
+      <c r="E110" s="8"/>
+      <c r="F110" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G110" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H109" s="18"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="12">
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="12">
         <v>109</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110" s="10" t="s">
+      <c r="C111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10" t="s">
+      <c r="E111" s="10"/>
+      <c r="F111" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G110" s="10" t="s">
+      <c r="G111" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="H110" s="17"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="11">
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="C112" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8" t="s">
+      <c r="E112" s="8"/>
+      <c r="F112" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G112" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H111" s="18"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="12">
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="12">
         <v>111</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="10" t="s">
+      <c r="C113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10" t="s">
+      <c r="E113" s="10"/>
+      <c r="F113" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G113" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="H112" s="17"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="11">
-        <v>112</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="H113" s="18"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="11">
+        <v>112</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="10" t="s">
+      <c r="C115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10" t="s">
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="G114" s="10" t="s">
+      <c r="G115" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="H114" s="17"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="12">
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="12">
         <v>114</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B116" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="C116" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G116" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H115" s="18"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="11">
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="11">
         <v>115</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="10" t="s">
+      <c r="C117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10" t="s">
+      <c r="E117" s="10"/>
+      <c r="F117" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G117" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="H116" s="17"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="12">
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="12">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B118" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8">
         <v>5</v>
       </c>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="18"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="11">
-        <v>117</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" s="18">
-        <v>3</v>
-      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="18"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="11">
+        <v>117</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="11">
         <v>118</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B120" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="12" t="s">
+      <c r="C120" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12" t="s">
+      <c r="E120" s="12"/>
+      <c r="F120" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G119" s="12" t="s">
+      <c r="G120" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H119" s="18"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="12">
+      <c r="H120" s="18"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="12">
         <v>119</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B121" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12">
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12">
         <v>5</v>
       </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="18"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="11">
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="18"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="11">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B122" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="13" t="s">
+      <c r="C122" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8" t="s">
+      <c r="E122" s="8"/>
+      <c r="F122" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G122" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="12">
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="12">
         <v>121</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="15" t="s">
+      <c r="D123" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10" t="s">
+      <c r="E123" s="10"/>
+      <c r="F123" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G122" s="10" t="s">
+      <c r="G123" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="H122" s="10"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="11">
-        <v>122</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8">
-        <v>20</v>
-      </c>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="11">
+        <v>122</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8">
+        <v>20</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="11">
         <v>123</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B125" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="15" t="s">
+      <c r="C125" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10" t="s">
+      <c r="E125" s="10"/>
+      <c r="F125" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G124" s="10" t="s">
+      <c r="G125" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H124" s="10"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="12">
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="12">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B126" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D126" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F126" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G126" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="H125" s="8"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="11">
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="15" t="s">
+      <c r="C127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F126" s="10" t="s">
+      <c r="F127" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="G126" s="10" t="s">
+      <c r="G127" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H126" s="10"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="12">
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="12">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="13" t="s">
+      <c r="C128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F128" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G127" s="8" t="s">
+      <c r="G128" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="11">
-        <v>127</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H128" s="10"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="11">
+        <v>127</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B130" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8">
-        <v>20</v>
-      </c>
-      <c r="F129" s="8" t="s">
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>20</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="8" t="s">
+      <c r="G130" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="12">
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="12">
         <v>129</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B131" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="11">
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="11">
         <v>130</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B132" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8">
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8">
         <v>10</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F132" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G131" s="8" t="s">
+      <c r="G132" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="12">
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="12">
         <v>131</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B133" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C133" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="D133" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10" t="s">
+      <c r="E133" s="10"/>
+      <c r="F133" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G133" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="11">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8">
-        <v>5</v>
-      </c>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="11">
-        <v>133</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="17">
-        <v>3</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8">
+        <v>5</v>
+      </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="11">
+        <v>133</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="11">
         <v>135</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B136" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="13" t="s">
+      <c r="C136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G136" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H135" s="18"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="12">
+      <c r="H136" s="18"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="12">
         <v>136</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10">
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10">
         <v>5</v>
       </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="17"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="11">
-        <v>137</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H137" s="8"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="11">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="11">
         <v>138</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B139" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="15" t="s">
+      <c r="D139" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10" t="s">
+      <c r="E139" s="10"/>
+      <c r="F139" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G138" s="10" t="s">
+      <c r="G139" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H138" s="10"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="12">
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="12">
         <v>139</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B140" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8">
         <v>5</v>
       </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="11">
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="11">
         <v>140</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B141" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="15" t="s">
+      <c r="C141" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10" t="s">
+      <c r="E141" s="10"/>
+      <c r="F141" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="G140" s="10" t="s">
+      <c r="G141" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="H140" s="10"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="12">
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="12">
         <v>141</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B142" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8">
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8">
         <v>5</v>
       </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="11">
-        <v>142</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H142" s="10"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="11">
+        <v>142</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H143" s="10"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="11">
         <v>143</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B144" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="8">
+      <c r="C144" s="8"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="8">
         <v>5</v>
       </c>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="12">
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="12">
         <v>144</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B145" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10" t="s">
+      <c r="C145" s="10"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G144" s="10" t="s">
+      <c r="G145" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="H144" s="10"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="11">
+      <c r="H145" s="10"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B146" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="13" t="s">
+      <c r="C146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="12">
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="12">
         <v>146</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B147" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="15" t="s">
+      <c r="C147" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10" t="s">
+      <c r="E147" s="10"/>
+      <c r="F147" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G146" s="10" t="s">
+      <c r="G147" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H146" s="10"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="11">
-        <v>147</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
+      <c r="H147" s="10"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="11">
+        <v>147</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="11">
         <v>148</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B149" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="15" t="s">
+      <c r="C149" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10" t="s">
+      <c r="E149" s="10"/>
+      <c r="F149" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G148" s="10" t="s">
+      <c r="G149" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H148" s="10"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="12">
+      <c r="H149" s="10"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="12">
         <v>149</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B150" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="13" t="s">
+      <c r="C150" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="E149" s="8">
+      <c r="E150" s="8">
         <v>200</v>
       </c>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="11">
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="11">
         <v>150</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B151" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="15" t="s">
+      <c r="C151" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10" t="s">
+      <c r="E151" s="10"/>
+      <c r="F151" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G150" s="10" t="s">
+      <c r="G151" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H150" s="10"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="12">
+      <c r="H151" s="10"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="12">
         <v>151</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B152" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="8"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="8">
+      <c r="C152" s="8"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="8">
         <v>3</v>
       </c>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="11">
-        <v>152</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="11">
+        <v>152</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B154" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C153" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="13" t="s">
+      <c r="C154" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E154" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F154" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G153" s="8" t="s">
+      <c r="G154" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="H153" s="8"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="12">
+      <c r="H154" s="8"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="12">
         <v>154</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B155" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="15" t="s">
+      <c r="C155" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10" t="s">
+      <c r="E155" s="10"/>
+      <c r="F155" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G154" s="10" t="s">
+      <c r="G155" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H154" s="10"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="11">
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="11">
         <v>155</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B156" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="8"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="8">
+      <c r="C156" s="8"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="8">
         <v>2</v>
       </c>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="12">
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="12">
         <v>156</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B157" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="15" t="s">
+      <c r="C157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="11">
-        <v>157</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="11">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B159" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="15" t="s">
+      <c r="C159" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="12">
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B160" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="8">
+      <c r="C160" s="8"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="8">
         <v>10</v>
       </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="11">
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B161" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10" t="s">
+      <c r="C161" s="10"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G160" s="10" t="s">
+      <c r="G161" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="H160" s="10"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="12">
+      <c r="H161" s="10"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B162" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="8">
+      <c r="C162" s="8"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="8">
         <v>10</v>
       </c>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="11">
-        <v>162</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="H162" s="10"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="11">
+        <v>162</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H163" s="10"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="11">
         <v>163</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B164" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" s="13" t="s">
+      <c r="C164" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8" t="s">
+      <c r="E164" s="8"/>
+      <c r="F164" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G163" s="8" t="s">
+      <c r="G164" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="H163" s="8"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="12">
+      <c r="H164" s="8"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B165" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="15" t="s">
+      <c r="C165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10" t="s">
+      <c r="E165" s="10"/>
+      <c r="F165" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="G164" s="10" t="s">
+      <c r="G165" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="H164" s="10"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="11">
+      <c r="H165" s="10"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="11">
         <v>165</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B166" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8">
         <v>4</v>
       </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C118 B119 C119 B120 C120 B4:B17 C7:C9 C14:C17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C119 B120 C120 B121 C121 B4:B17 C7:C9 C14:C17">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C58 C81 C29:C35">
@@ -6009,13 +6023,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99 B100 B118 C134 C136 B1:B3 B18:B38 B39:B97 B102:B117 B121:B134 B135:B137 B164:B165 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89 B100 B101 B119 C135 C137 B1:B3 B18:B38 B39:B88 B90:B98 B103:B118 B122:B135 B136:B138 B165:B166 C2:C3">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C135 C18:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136 C18:C28">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B141 B142:B163">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B142 B143:B164">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
   <si>
     <t>Step No</t>
   </si>
@@ -934,24 +934,6 @@
   </si>
   <si>
     <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>EXPE_TYPE_OF_SERVICE</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>Type search type of service</t>
-  </si>
-  <si>
-    <t>Type of service entered</t>
-  </si>
-  <si>
-    <t>Select type of service</t>
-  </si>
-  <si>
-    <t>Type of service selected</t>
   </si>
   <si>
     <t>EXPE_DATE_OF_SERVICE_FROM</t>
@@ -1313,10 +1295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1366,21 +1348,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1397,9 +1364,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1408,37 +1375,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1451,15 +1387,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,21 +1409,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,7 +1447,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1536,25 +1518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,7 +1548,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,13 +1662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,121 +1692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,10 +1779,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1810,7 +1790,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,21 +1836,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,33 +1864,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1913,130 +1895,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2490,10 +2472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5544,470 +5526,412 @@
       <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="11">
-        <v>142</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="15" t="s">
+      <c r="A143" s="12">
+        <v>143</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="12">
+        <v>144</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="F143" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H143" s="10"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="11">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="8">
-        <v>5</v>
-      </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H144" s="10"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="12">
-        <v>144</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="H145" s="10"/>
+        <v>145</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="11">
-        <v>145</v>
-      </c>
-      <c r="B146" s="8" t="s">
+      <c r="A146" s="12">
+        <v>146</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="C146" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H146" s="10"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="12">
-        <v>146</v>
-      </c>
-      <c r="B147" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E147" s="8">
+        <v>200</v>
+      </c>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="12">
+        <v>148</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H147" s="10"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="11">
-        <v>147</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
+      <c r="C148" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H148" s="10"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="11">
-        <v>148</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H149" s="10"/>
+      <c r="A149" s="12">
+        <v>149</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="8">
+        <v>3</v>
+      </c>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="12">
-        <v>149</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E150" s="8">
-        <v>200</v>
-      </c>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
+        <v>150</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="11">
-        <v>150</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H151" s="10"/>
+      <c r="A151" s="12">
+        <v>151</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="12">
-        <v>151</v>
-      </c>
-      <c r="B152" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="12">
+        <v>153</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="8">
-        <v>3</v>
-      </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="11">
-        <v>152</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="8">
+        <v>2</v>
+      </c>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="11">
-        <v>153</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H154" s="8"/>
+      <c r="A154" s="12">
+        <v>154</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="12">
-        <v>154</v>
-      </c>
-      <c r="B155" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="12">
+        <v>156</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H155" s="10"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="11">
-        <v>155</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="8"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="8">
-        <v>2</v>
-      </c>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
+      <c r="C156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="12">
-        <v>156</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="8">
+        <v>10</v>
+      </c>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="11">
-        <v>157</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
+      <c r="A158" s="12">
+        <v>158</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H158" s="10"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="11">
-        <v>158</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
+      <c r="A159" s="12">
+        <v>159</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="8">
+        <v>10</v>
+      </c>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="12">
-        <v>159</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="8">
-        <v>10</v>
-      </c>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H160" s="10"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="11">
-        <v>160</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10" t="s">
+      <c r="A161" s="12">
+        <v>161</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G161" s="10" t="s">
+      <c r="E161" s="8"/>
+      <c r="F161" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="H161" s="10"/>
+      <c r="G161" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="12">
-        <v>161</v>
-      </c>
-      <c r="B162" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H162" s="10"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="12">
+        <v>163</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="8">
-        <v>10</v>
-      </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="11">
-        <v>162</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="H163" s="10"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="11">
-        <v>163</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="12">
-        <v>164</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="H165" s="10"/>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="11">
-        <v>165</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8">
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8">
         <v>4</v>
       </c>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -6023,13 +5947,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89 B100 B101 B119 C135 C137 B1:B3 B18:B38 B39:B88 B90:B98 B103:B118 B122:B135 B136:B138 B165:B166 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89 B100 B101 B119 C135 C137 B1:B3 B18:B38 B39:B88 B90:B98 B103:B118 B122:B135 B136:B138 B162:B163 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C136 C18:C28">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B142 B143:B164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139:B142 B143:B161">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6060,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6068,20 +5992,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -6092,20 +6016,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6113,47 +6037,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6163,12 +6087,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6178,17 +6102,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -6198,35 +6122,35 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6236,62 +6160,62 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -6301,87 +6225,87 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6391,199 +6315,199 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -6603,12 +6527,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive-OK.xlsx
@@ -1295,10 +1295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1348,7 +1348,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,10 +1379,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1378,31 +1402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1415,37 +1416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1454,7 +1424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,7 +1439,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,7 +1455,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,7 +1518,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,49 +1608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,13 +1632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,7 +1650,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,55 +1686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,25 +1698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,15 +1786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1810,17 +1801,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1836,15 +1821,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1874,10 +1850,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1895,130 +1895,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2475,7 +2475,7 @@
   <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="12">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>19</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="12">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>19</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="12">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>19</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="12">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>19</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="12">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>47</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="12">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>19</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="12">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>11</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="12">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>65</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="12">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>283</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="12">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>19</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="12">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>11</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="12">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>19</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="12">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>65</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="12">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>19</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="12">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>11</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="12">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>290</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="12">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>11</v>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="12">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>245</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="12">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>314</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="12">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>19</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="12">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>11</v>
